--- a/Server_info.xlsx
+++ b/Server_info.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D888BC-EF35-46EF-BA15-47AC3C1C0C1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71D1221-89BD-418F-8939-3879A1CBB57F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Server_Linux" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>bl@Mobi$Digi%</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -849,7 +852,7 @@
   <dimension ref="A3:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +998,9 @@
       <c r="M5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="N5" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">

--- a/Server_info.xlsx
+++ b/Server_info.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71D1221-89BD-418F-8939-3879A1CBB57F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D888BC-EF35-46EF-BA15-47AC3C1C0C1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Server_Linux" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -354,9 +354,6 @@
   </si>
   <si>
     <t>bl@Mobi$Digi%</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -852,7 +849,7 @@
   <dimension ref="A3:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,9 +995,7 @@
       <c r="M5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="N5" s="5"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">

--- a/Server_info.xlsx
+++ b/Server_info.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D888BC-EF35-46EF-BA15-47AC3C1C0C1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F653F2A5-7C83-45E9-A6B6-9A7392478992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Server_Linux" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>bl@Mobi$Digi%</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -849,7 +852,7 @@
   <dimension ref="A3:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +998,9 @@
       <c r="M5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="N5" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">

--- a/Server_info.xlsx
+++ b/Server_info.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F653F2A5-7C83-45E9-A6B6-9A7392478992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DBB947-A0A0-494F-B9ED-29B9C8CC3F76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,7 +356,7 @@
     <t>bl@Mobi$Digi%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -852,7 +852,7 @@
   <dimension ref="A3:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Server_info.xlsx
+++ b/Server_info.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DBB947-A0A0-494F-B9ED-29B9C8CC3F76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37971D61-538D-41DE-9571-8C05321C6385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,7 +356,7 @@
     <t>bl@Mobi$Digi%</t>
   </si>
   <si>
-    <t>YES</t>
+    <t>ONE</t>
   </si>
 </sst>
 </file>
@@ -852,7 +852,7 @@
   <dimension ref="A3:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Server_info.xlsx
+++ b/Server_info.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37971D61-538D-41DE-9571-8C05321C6385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01436B72-507E-4843-93A3-3836521D5369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -357,6 +357,15 @@
   </si>
   <si>
     <t>ONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data1 </t>
+  </si>
+  <si>
+    <t>data 1</t>
+  </si>
+  <si>
+    <t>data 3</t>
   </si>
 </sst>
 </file>
@@ -849,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:O25"/>
+  <dimension ref="A3:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="C28" sqref="C28:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,11 +1549,17 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -1571,6 +1586,104 @@
       <c r="N25" s="5"/>
       <c r="O25" s="1"/>
     </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="5">
+        <v>22</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="5">
+        <v>22</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="5">
+        <v>22</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="5">
+        <v>22</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1581,9 +1694,10 @@
     <hyperlink ref="K17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="H4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="F20" r:id="rId8" xr:uid="{01EF353A-EE09-4A8B-80C5-AB07EF3AC4C3}"/>
+    <hyperlink ref="F30" r:id="rId9" xr:uid="{0BFC176D-A7D1-4C14-AA7A-2E9FFCAC4BA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
